--- a/GRSM SAR DB/Carriers.xlsx
+++ b/GRSM SAR DB/Carriers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="SMS Carriers" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>@sms.att.net</t>
   </si>
   <si>
-    <t>Some Other Carrier</t>
-  </si>
-  <si>
-    <t>@tom.com</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>@nophone.com</t>
   </si>
 </sst>
 </file>
@@ -385,8 +385,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
